--- a/app/Http/Python/excel/Monday.xlsx
+++ b/app/Http/Python/excel/Monday.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="171">
   <si>
     <t>ｻｲﾓﾝ ﾒｲｿﾝ</t>
   </si>
@@ -30,18 +30,12 @@
     <t>前期</t>
   </si>
   <si>
-    <t xml:space="preserve">Advanced Listening IA </t>
-  </si>
-  <si>
     <t>ｸﾘﾌｫｰﾄﾞ ﾘｯﾌﾟﾙ</t>
   </si>
   <si>
     <t xml:space="preserve">4年 </t>
   </si>
   <si>
-    <t xml:space="preserve">Academic Writing IA2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">ｴﾘｶ ﾑﾗﾓﾄ </t>
   </si>
   <si>
@@ -54,243 +48,114 @@
     <t xml:space="preserve">早田　巳代一 </t>
   </si>
   <si>
-    <t xml:space="preserve">初等社会概説 </t>
-  </si>
-  <si>
     <t xml:space="preserve">野口　周一 </t>
   </si>
   <si>
-    <t xml:space="preserve">Unified English IF1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">正田　久実子 </t>
   </si>
   <si>
-    <t xml:space="preserve">Spoken English IF2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">英語Reading IIIA1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">ｸﾘﾌｫｰﾄﾞ ﾘｯﾌﾟﾙ </t>
   </si>
   <si>
     <t xml:space="preserve">3年 </t>
   </si>
   <si>
-    <t xml:space="preserve">総合英語IB2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">伊藤　道代 </t>
   </si>
   <si>
-    <t xml:space="preserve">総合英語IB3 </t>
-  </si>
-  <si>
     <t xml:space="preserve">石川 真奈実 </t>
   </si>
   <si>
-    <t xml:space="preserve">総合英語IIIB1 </t>
-  </si>
-  <si>
     <t xml:space="preserve">西田　桐子 </t>
   </si>
   <si>
     <t>3年</t>
   </si>
   <si>
-    <t xml:space="preserve">Speech Clinic I </t>
-  </si>
-  <si>
     <t xml:space="preserve">ﾛﾘ ｱﾝ ﾃﾞﾛｰｼﾞｪ </t>
   </si>
   <si>
-    <t xml:space="preserve">Media &amp; Society I </t>
-  </si>
-  <si>
     <t xml:space="preserve">ｻｲﾓﾝ ﾒｲｿﾝ </t>
   </si>
   <si>
-    <t xml:space="preserve">キリスト教と日本文化 </t>
-  </si>
-  <si>
     <t xml:space="preserve">野村　誠 </t>
   </si>
   <si>
-    <t xml:space="preserve">自然と地理 </t>
-  </si>
-  <si>
     <t xml:space="preserve">矢島　宣弘 </t>
   </si>
   <si>
-    <t xml:space="preserve">情報演習・基礎 </t>
-  </si>
-  <si>
     <t xml:space="preserve">諏訪　美智子 </t>
   </si>
   <si>
     <t xml:space="preserve">菊地　千月 </t>
   </si>
   <si>
-    <t xml:space="preserve">English Reading for Teachers I </t>
-  </si>
-  <si>
     <t>園田　敦子</t>
   </si>
   <si>
-    <t xml:space="preserve">Unified English IB2 </t>
-  </si>
-  <si>
     <t>ｴﾘｶ ﾑﾗﾓﾄ</t>
   </si>
   <si>
-    <t xml:space="preserve">Unified English IB4 </t>
-  </si>
-  <si>
     <t>西田　桐子</t>
   </si>
   <si>
-    <t xml:space="preserve">Written English IB1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written English IB3 </t>
-  </si>
-  <si>
     <t>石川 真奈実</t>
   </si>
   <si>
-    <t xml:space="preserve">English for Global Issues IB1・B2 </t>
-  </si>
-  <si>
     <t>ｽﾃｨｰﾌﾞﾝ ﾌｪﾘｱｰ</t>
   </si>
   <si>
-    <t xml:space="preserve">English for Global Issues IB3・B4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">総合英語IB6 </t>
-  </si>
-  <si>
     <t>伊藤　道代</t>
   </si>
   <si>
-    <t xml:space="preserve">Speaking of Japan IA1・A2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Presentations I </t>
-  </si>
-  <si>
     <t>ﾛﾘ ｱﾝ ﾃﾞﾛｰｼﾞｪ</t>
   </si>
   <si>
     <t xml:space="preserve">4年　 </t>
   </si>
   <si>
-    <t xml:space="preserve">日本文学I </t>
-  </si>
-  <si>
     <t>西原　志保</t>
   </si>
   <si>
-    <t xml:space="preserve">コミュニケーション技法 </t>
-  </si>
-  <si>
     <t>三井　里恵</t>
   </si>
   <si>
-    <t xml:space="preserve">英語科教育法 I </t>
-  </si>
-  <si>
     <t xml:space="preserve">小林　恵美 </t>
   </si>
   <si>
     <t>通年</t>
   </si>
   <si>
-    <t xml:space="preserve">社会科・公民科教育法 I </t>
-  </si>
-  <si>
-    <t xml:space="preserve">教職論（初等） </t>
-  </si>
-  <si>
     <t xml:space="preserve">小林　清 </t>
   </si>
   <si>
-    <t xml:space="preserve">英語教育のための文法と談話I </t>
-  </si>
-  <si>
     <t xml:space="preserve">小林　真記 </t>
   </si>
   <si>
-    <t xml:space="preserve">Written English IF1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written English IF3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoken English IA1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoken English IB4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">総合英語IA2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">ｽﾃｨｰﾌﾞﾝ ﾌｪﾘｱｰ </t>
   </si>
   <si>
-    <t xml:space="preserve">総合英語IIIA2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">3年　 </t>
   </si>
   <si>
-    <t xml:space="preserve">TOEIC Listening IB </t>
-  </si>
-  <si>
     <t xml:space="preserve">2年　 </t>
   </si>
   <si>
-    <t xml:space="preserve">第二言語習得論I </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academic Writing IB2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">園田　敦子 </t>
   </si>
   <si>
-    <t xml:space="preserve">ポルトガル語I </t>
-  </si>
-  <si>
     <t xml:space="preserve">橋爪　昭一 </t>
   </si>
   <si>
     <t xml:space="preserve">三井　里恵 </t>
   </si>
   <si>
-    <t xml:space="preserve">国語力講座I </t>
-  </si>
-  <si>
     <t xml:space="preserve">西原　志保 </t>
   </si>
   <si>
-    <t xml:space="preserve">東南アジア論 </t>
-  </si>
-  <si>
     <t xml:space="preserve">西舘　崇 </t>
   </si>
   <si>
-    <t xml:space="preserve">教育と社会「教育原理II」（初等） </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Speaking IA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">情報総合IV </t>
-  </si>
-  <si>
     <t xml:space="preserve">杉沢　一美 </t>
   </si>
   <si>
@@ -303,208 +168,481 @@
     <t>研究室</t>
   </si>
   <si>
-    <t xml:space="preserve">830200　キャリア・プランニング II </t>
+    <t xml:space="preserve">青木　博 </t>
+  </si>
+  <si>
+    <t>後期</t>
+  </si>
+  <si>
+    <t xml:space="preserve">加藤　昌弘 </t>
+  </si>
+  <si>
+    <t>小林　真記</t>
+  </si>
+  <si>
+    <t xml:space="preserve">水野　太朗 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">玉川　博章 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">鈴木　康則 </t>
+  </si>
+  <si>
+    <t>研究所</t>
+  </si>
+  <si>
+    <t>GLocal office,就職センター</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLocal office,就職センター </t>
+  </si>
+  <si>
+    <t>Academic Writing IA2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Spoken English IA2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1年 </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>初等社会概説</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Spoken English IIA2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Advanced Listening IIA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Academic Writing IIA2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>東洋史概説</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>管理会計II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Unified English IF1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Spoken English IF2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>英語Reading IIIA1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IB2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IB3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IIIB1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Speech Clinic I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Media &amp; Society I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>キリスト教と日本文化</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>情報演習・基礎</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>情報演習・基礎</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>前期</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>自然と地理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>情報演習・基礎</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>English Reading for Teachers I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Unified English IIF1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Spoken English IIF2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>英語Reading IVA1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IIB2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IIB3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IVB1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Media &amp; Society II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Speech Clinic II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>キリスト教と諸宗教</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>人々の生活と地理</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>臨床心理学</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>情報総合I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>初等社会科教育法</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>English Reading for Teachers II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Unified English IB2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Unified English IB4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Written English IB1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Written English IB3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>English for Global Issues IB1・B2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>English for Global Issues IB3・B4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IB6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Speaking of Japan IA1・A2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Professional Presentations I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>日本文学I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コミュニケーション技法</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>情報演習・基礎</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>英語科教育法I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>社会科・公民科教育法I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>教職論（初等）</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>英語教育のための文法と談話I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Unified English IIB2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Unified English IIB4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Written English IIB1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Written English IIB3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>English for Global Issues IIB1・B2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>English for Global Issues IIB3・B4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IIB6</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Speaking of Japan IIA1・A2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Professional Presentations II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>グローバル市民社会論</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>西洋史概説</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ポップカルチャー論</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>情報総合I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>社会科・公民科教育法 II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>英語教育のための文法と談話 II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Written English IF1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Written English IF3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Spoken English IA1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Spoken English IB4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IA2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IIIA2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TOEIC Listening IB</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>第二言語習得論I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Academic Writing IB2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ポルトガル語I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>コミュニケーション技法</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>国語力講座I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>東南アジア論</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>教育と社会「教育原理II」（初等）</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Written English IIF1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Written English IIF3</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Spoken English IIA1</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Spoken English IIB4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IIA2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>総合英語IVA2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TOEIC Listening IIB</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>第二言語習得論II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Academic Writing IIB2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ポルトガル語II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>西洋文学入門</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>国語力講座II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>情報社会</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Advanced Speaking IA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ポルトガル語I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>情報総合IV</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>キャリア・プランニング II</t>
+    <phoneticPr fontId="18"/>
   </si>
   <si>
     <t xml:space="preserve">教職論（中等） </t>
-  </si>
-  <si>
-    <t xml:space="preserve">青木　博 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Leadership I </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoken English IIA2 </t>
-  </si>
-  <si>
-    <t>後期</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Listening IIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academic Writing IIA2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">東洋史概説 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">管理会計II </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unified English IIF1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoken English IIF2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">英語Reading IVA1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">総合英語IIB2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">総合英語IIB3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">総合英語IVB1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media &amp; Society II </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speech Clinic II </t>
-  </si>
-  <si>
-    <t xml:space="preserve">キリスト教と諸宗教 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">人々の生活と地理 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">臨床心理学 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">加藤　昌弘 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">情報総合I </t>
-  </si>
-  <si>
-    <t xml:space="preserve">初等社会科教育法 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">English Reading for Teachers II </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unified English IIB2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unified English IIB4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written English IIB1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written English IIB3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">English for Global Issues IIB1・B2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">English for Global Issues IIB3・B4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">総合英語IIB6 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Speaking of Japan IIA1・A2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Professional Presentations II </t>
-  </si>
-  <si>
-    <t xml:space="preserve">グローバル市民社会論 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">西洋史概説 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポップカルチャー論 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">社会科・公民科教育法 II </t>
-  </si>
-  <si>
-    <t xml:space="preserve">英語教育のための文法と談話 II </t>
-  </si>
-  <si>
-    <t>小林　真記</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written English IIF1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Written English IIF3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoken English IIA1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoken English IIB4 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">総合英語IIA2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">総合英語IVA2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOEIC Listening IIB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">第二言語習得論II </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Academic Writing IIB2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ポルトガル語II </t>
-  </si>
-  <si>
-    <t xml:space="preserve">西洋文学入門 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">水野　太朗 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">国語力講座II </t>
-  </si>
-  <si>
-    <t xml:space="preserve">情報社会 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">玉川　博章 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Advanced Speaking IIA </t>
-  </si>
-  <si>
-    <t xml:space="preserve">英文学 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">哲学 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">鈴木　康則 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">課題演習 II（藤枝） </t>
-  </si>
-  <si>
-    <t>研究所</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キャリア・プランニング IIIA </t>
-  </si>
-  <si>
-    <t>GLocal office,就職センター</t>
-  </si>
-  <si>
-    <t xml:space="preserve">キャリア・プランニング IIIB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLocal office,就職センター </t>
-  </si>
-  <si>
-    <t xml:space="preserve">教育課程論（初等） </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Leadership II </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spoken English IA2 </t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Advanced Speaking IIA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>ポルトガル語II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>英文学</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>哲学</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>課題演習 II（藤枝）</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>キャリア・プランニング IIIA</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>キャリア・プランニング IIIB</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>教育課程論（初等）</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Global Leadership I</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Global Leadership II</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Advanced Listening IA</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1429,36 +1567,37 @@
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>161</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="E1">
         <v>1301</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="G1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
@@ -1470,10 +1609,10 @@
         <v>4203</v>
       </c>
       <c r="K1" t="s">
-        <v>39</v>
+        <v>97</v>
       </c>
       <c r="L1" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
         <v>1</v>
@@ -1485,13 +1624,13 @@
         <v>1303</v>
       </c>
       <c r="P1" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="Q1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S1" t="s">
         <v>2</v>
@@ -1500,13 +1639,13 @@
         <v>1303</v>
       </c>
       <c r="U1" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="V1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="W1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X1" t="s">
         <v>2</v>
@@ -1515,13 +1654,13 @@
         <v>1312</v>
       </c>
       <c r="Z1" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="AA1" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="AB1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AC1" t="s">
         <v>2</v>
@@ -1532,13 +1671,13 @@
     </row>
     <row r="2" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -1547,10 +1686,10 @@
         <v>1302</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -1562,10 +1701,10 @@
         <v>1303</v>
       </c>
       <c r="K2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="L2" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="M2" t="s">
         <v>1</v>
@@ -1577,13 +1716,13 @@
         <v>4206</v>
       </c>
       <c r="P2" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="R2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S2" t="s">
         <v>2</v>
@@ -1592,10 +1731,10 @@
         <v>4202</v>
       </c>
       <c r="U2" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="V2" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W2" t="s">
         <v>1</v>
@@ -1607,16 +1746,16 @@
         <v>1301</v>
       </c>
       <c r="Z2" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AA2" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="AB2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="AC2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="AD2">
         <v>4201</v>
@@ -1624,13 +1763,13 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -1639,13 +1778,13 @@
         <v>1303</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I3" t="s">
         <v>2</v>
@@ -1654,10 +1793,10 @@
         <v>1302</v>
       </c>
       <c r="K3" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="L3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M3" t="s">
         <v>1</v>
@@ -1669,10 +1808,10 @@
         <v>4203</v>
       </c>
       <c r="P3" t="s">
-        <v>69</v>
+        <v>130</v>
       </c>
       <c r="Q3" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R3" t="s">
         <v>1</v>
@@ -1684,16 +1823,16 @@
         <v>1311</v>
       </c>
       <c r="U3" t="s">
-        <v>89</v>
+        <v>157</v>
       </c>
       <c r="V3" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="W3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="X3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="Y3">
         <v>2302</v>
@@ -1701,13 +1840,13 @@
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1716,13 +1855,13 @@
         <v>4201</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
@@ -1731,10 +1870,10 @@
         <v>4202</v>
       </c>
       <c r="K4" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M4" t="s">
         <v>1</v>
@@ -1746,10 +1885,10 @@
         <v>1313</v>
       </c>
       <c r="P4" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="R4" t="s">
         <v>1</v>
@@ -1761,27 +1900,27 @@
         <v>1313</v>
       </c>
       <c r="U4" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="V4" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="W4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="X4" t="s">
         <v>2</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>93</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>1</v>
@@ -1793,13 +1932,13 @@
         <v>1201</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
@@ -1808,13 +1947,13 @@
         <v>1301</v>
       </c>
       <c r="K5" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N5" t="s">
         <v>2</v>
@@ -1823,13 +1962,13 @@
         <v>4201</v>
       </c>
       <c r="P5" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="R5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S5" t="s">
         <v>2</v>
@@ -1838,13 +1977,13 @@
         <v>4201</v>
       </c>
       <c r="U5" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="V5" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="W5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X5" t="s">
         <v>2</v>
@@ -1855,28 +1994,28 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E6">
         <v>1311</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I6" t="s">
         <v>2</v>
@@ -1885,13 +2024,13 @@
         <v>4206</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N6" t="s">
         <v>2</v>
@@ -1900,13 +2039,13 @@
         <v>1302</v>
       </c>
       <c r="P6" t="s">
-        <v>73</v>
+        <v>133</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="R6" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="S6" t="s">
         <v>2</v>
@@ -1915,10 +2054,10 @@
         <v>1312</v>
       </c>
       <c r="U6" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="V6" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="W6" t="s">
         <v>1</v>
@@ -1932,28 +2071,28 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E7">
         <v>1302</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I7" t="s">
         <v>2</v>
@@ -1962,13 +2101,13 @@
         <v>1312</v>
       </c>
       <c r="K7" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="M7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N7" t="s">
         <v>2</v>
@@ -1977,13 +2116,13 @@
         <v>4202</v>
       </c>
       <c r="P7" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="Q7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R7" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s">
         <v>2</v>
@@ -1992,16 +2131,16 @@
         <v>4203</v>
       </c>
       <c r="U7" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="V7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="W7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X7" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="Y7">
         <v>1312</v>
@@ -2009,28 +2148,28 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E8">
         <v>1303</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>75</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
@@ -2039,7 +2178,7 @@
         <v>4112</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
@@ -2054,13 +2193,13 @@
         <v>1311</v>
       </c>
       <c r="P8" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="Q8" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="R8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="S8" t="s">
         <v>2</v>
@@ -2069,16 +2208,16 @@
         <v>1201</v>
       </c>
       <c r="U8" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="V8" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="W8" t="s">
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="Y8">
         <v>1301</v>
@@ -2086,28 +2225,28 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>2401</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -2116,13 +2255,13 @@
         <v>3101</v>
       </c>
       <c r="K9" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N9" t="s">
         <v>2</v>
@@ -2131,13 +2270,13 @@
         <v>1312</v>
       </c>
       <c r="P9" t="s">
-        <v>78</v>
+        <v>136</v>
       </c>
       <c r="Q9" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="R9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S9" t="s">
         <v>2</v>
@@ -2146,16 +2285,16 @@
         <v>2413</v>
       </c>
       <c r="U9" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="V9" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="W9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="X9" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="Y9">
         <v>1206</v>
@@ -2163,25 +2302,25 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="E10">
         <v>4201</v>
       </c>
       <c r="F10" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
         <v>1</v>
@@ -2193,10 +2332,10 @@
         <v>1203</v>
       </c>
       <c r="K10" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="M10" t="s">
         <v>1</v>
@@ -2208,10 +2347,10 @@
         <v>4204</v>
       </c>
       <c r="P10" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="Q10" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="R10" t="s">
         <v>1</v>
@@ -2223,16 +2362,16 @@
         <v>1301</v>
       </c>
       <c r="U10" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="V10" t="s">
-        <v>152</v>
+        <v>55</v>
       </c>
       <c r="W10" t="s">
         <v>1</v>
       </c>
       <c r="X10" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="Y10">
         <v>1205</v>
@@ -2240,10 +2379,10 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
         <v>1</v>
@@ -2255,10 +2394,10 @@
         <v>2302</v>
       </c>
       <c r="K11" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
         <v>1</v>
@@ -2270,10 +2409,10 @@
         <v>1206</v>
       </c>
       <c r="P11" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="Q11" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="R11" t="s">
         <v>1</v>
@@ -2285,27 +2424,27 @@
         <v>1206</v>
       </c>
       <c r="U11" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="V11" t="s">
-        <v>92</v>
+        <v>47</v>
       </c>
       <c r="W11" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="X11" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="Y11" t="s">
-        <v>154</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
         <v>1</v>
@@ -2317,10 +2456,10 @@
         <v>2301</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>108</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M12" t="s">
         <v>1</v>
@@ -2332,10 +2471,10 @@
         <v>2302</v>
       </c>
       <c r="P12" t="s">
-        <v>83</v>
+        <v>139</v>
       </c>
       <c r="Q12" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="R12" t="s">
         <v>1</v>
@@ -2347,16 +2486,16 @@
         <v>4204</v>
       </c>
       <c r="U12" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="V12" t="s">
-        <v>156</v>
+        <v>57</v>
       </c>
       <c r="W12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X12" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="Y12">
         <v>1401</v>
@@ -2364,13 +2503,13 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="H13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I13" t="s">
         <v>2</v>
@@ -2379,10 +2518,10 @@
         <v>4201</v>
       </c>
       <c r="K13" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M13" t="s">
         <v>1</v>
@@ -2394,10 +2533,10 @@
         <v>2301</v>
       </c>
       <c r="P13" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="Q13" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="R13" t="s">
         <v>1</v>
@@ -2409,16 +2548,16 @@
         <v>3101</v>
       </c>
       <c r="U13" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="V13" t="s">
-        <v>158</v>
+        <v>58</v>
       </c>
       <c r="W13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="X13" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="Y13">
         <v>2401</v>
@@ -2426,43 +2565,43 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J14">
         <v>4203</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M14" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N14" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="O14">
         <v>1201</v>
       </c>
       <c r="P14" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="Q14" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="R14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S14" t="s">
         <v>2</v>
@@ -2471,16 +2610,16 @@
         <v>1304</v>
       </c>
       <c r="U14" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="V14" t="s">
-        <v>96</v>
+        <v>49</v>
       </c>
       <c r="W14" t="s">
         <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="Y14">
         <v>1101</v>
@@ -2488,28 +2627,28 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H15" t="s">
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J15">
         <v>1303</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M15" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N15" t="s">
         <v>2</v>
@@ -2518,16 +2657,16 @@
         <v>1301</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="Q15" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="R15" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T15">
         <v>1303</v>
@@ -2535,25 +2674,25 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="H16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J16">
         <v>1302</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="L16" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="M16" t="s">
         <v>1</v>
@@ -2565,16 +2704,16 @@
         <v>1304</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="Q16" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="R16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S16" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T16">
         <v>4202</v>
@@ -2582,28 +2721,28 @@
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J17">
         <v>4202</v>
       </c>
       <c r="K17" t="s">
-        <v>65</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="M17" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N17" t="s">
         <v>2</v>
@@ -2612,16 +2751,16 @@
         <v>1203</v>
       </c>
       <c r="P17" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Q17" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="R17" t="s">
         <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T17">
         <v>1311</v>
@@ -2629,46 +2768,46 @@
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J18">
         <v>1301</v>
       </c>
       <c r="K18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M18" t="s">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O18">
         <v>1303</v>
       </c>
       <c r="P18" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="Q18" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="R18" t="s">
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T18">
         <v>1313</v>
@@ -2676,46 +2815,46 @@
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="G19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J19">
         <v>4206</v>
       </c>
       <c r="K19" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M19" t="s">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O19">
         <v>4206</v>
       </c>
       <c r="P19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Q19" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="R19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S19" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T19">
         <v>4201</v>
@@ -2723,46 +2862,46 @@
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="H20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J20">
         <v>4112</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M20" t="s">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O20">
         <v>4203</v>
       </c>
       <c r="P20" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q20" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="R20" t="s">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="S20" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T20">
         <v>1312</v>
@@ -2770,46 +2909,46 @@
     </row>
     <row r="21" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J21">
         <v>1312</v>
       </c>
       <c r="K21" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="M21" t="s">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O21">
         <v>1313</v>
       </c>
       <c r="P21" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="Q21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="R21" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="S21" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T21">
         <v>4203</v>
@@ -2817,46 +2956,46 @@
     </row>
     <row r="22" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="G22" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J22">
         <v>2401</v>
       </c>
       <c r="K22" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="L22" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="M22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N22" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O22">
         <v>4201</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="Q22" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="R22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="S22" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T22">
         <v>1201</v>
@@ -2864,46 +3003,46 @@
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J23">
         <v>1203</v>
       </c>
       <c r="K23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L23" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="M23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N23" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O23">
         <v>1302</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="Q23" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="R23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S23" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T23">
         <v>2413</v>
@@ -2911,46 +3050,46 @@
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J24">
         <v>1401</v>
       </c>
       <c r="K24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M24" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N24" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O24">
         <v>4202</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="Q24" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="R24" t="s">
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T24">
         <v>1301</v>
@@ -2958,46 +3097,46 @@
     </row>
     <row r="25" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="H25" t="s">
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J25">
         <v>2302</v>
       </c>
       <c r="K25" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="M25" t="s">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O25">
         <v>1301</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="Q25" t="s">
-        <v>145</v>
+        <v>53</v>
       </c>
       <c r="R25" t="s">
         <v>1</v>
       </c>
       <c r="S25" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T25">
         <v>1101</v>
@@ -3005,46 +3144,46 @@
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H26" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J26">
         <v>1201</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="L26" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M26" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N26" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O26">
         <v>1312</v>
       </c>
       <c r="P26" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="Q26" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="R26" t="s">
         <v>1</v>
       </c>
       <c r="S26" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T26">
         <v>4204</v>
@@ -3052,46 +3191,46 @@
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J27">
         <v>4201</v>
       </c>
       <c r="K27" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="L27" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N27" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O27">
         <v>2401</v>
       </c>
       <c r="P27" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="Q27" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
       <c r="R27" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S27" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="T27">
         <v>1206</v>
@@ -3099,16 +3238,16 @@
     </row>
     <row r="28" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K28" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="L28" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="M28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N28" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O28">
         <v>3101</v>
@@ -3116,16 +3255,16 @@
     </row>
     <row r="29" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K29" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L29" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="M29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N29" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O29">
         <v>1101</v>
@@ -3133,16 +3272,16 @@
     </row>
     <row r="30" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K30" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="L30" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="M30" t="s">
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O30">
         <v>2301</v>
@@ -3150,16 +3289,16 @@
     </row>
     <row r="31" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L31" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="M31" t="s">
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O31">
         <v>2302</v>
@@ -3167,16 +3306,16 @@
     </row>
     <row r="32" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K32" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="L32" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="N32" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O32">
         <v>1301</v>
@@ -3184,16 +3323,16 @@
     </row>
     <row r="33" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K33" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="L33" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="M33" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N33" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="O33">
         <v>1203</v>

--- a/app/Http/Python/excel/Monday.xlsx
+++ b/app/Http/Python/excel/Monday.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araki\Documents\library_vue\app\Http\Python\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\araki\Documents\syllabus\app\Http\Python\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -159,9 +159,6 @@
     <t xml:space="preserve">杉沢　一美 </t>
   </si>
   <si>
-    <t xml:space="preserve">課題演習 I（藤枝） </t>
-  </si>
-  <si>
     <t xml:space="preserve">藤枝　豊 </t>
   </si>
   <si>
@@ -406,10 +403,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>教職論（初等）</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>英語教育のための文法と談話I</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -526,10 +519,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>教育と社会「教育原理II」（初等）</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Written English IIF1</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -598,10 +587,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t xml:space="preserve">教職論（中等） </t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Advanced Speaking IIA</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -618,10 +603,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>課題演習 II（藤枝）</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>キャリア・プランニング IIIA</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -630,10 +611,6 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>教育課程論（初等）</t>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Global Leadership I</t>
     <phoneticPr fontId="18"/>
   </si>
@@ -644,6 +621,24 @@
   <si>
     <t>Advanced Listening IA</t>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t xml:space="preserve">課題演習 I(藤枝) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">教職論(中等) </t>
+  </si>
+  <si>
+    <t>課題演習 II(藤枝)</t>
+  </si>
+  <si>
+    <t>教育と社会「教育原理II」(初等)</t>
+  </si>
+  <si>
+    <t>教育課程論(初等)</t>
+  </si>
+  <si>
+    <t>教職論(初等)</t>
   </si>
 </sst>
 </file>
@@ -1579,22 +1574,22 @@
   <sheetData>
     <row r="1" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1">
         <v>1301</v>
       </c>
       <c r="F1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
@@ -1609,7 +1604,7 @@
         <v>4203</v>
       </c>
       <c r="K1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L1" t="s">
         <v>24</v>
@@ -1624,7 +1619,7 @@
         <v>1303</v>
       </c>
       <c r="P1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q1" t="s">
         <v>5</v>
@@ -1639,7 +1634,7 @@
         <v>1303</v>
       </c>
       <c r="U1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="V1" t="s">
         <v>17</v>
@@ -1654,7 +1649,7 @@
         <v>1312</v>
       </c>
       <c r="Z1" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="AA1" t="s">
         <v>44</v>
@@ -1671,7 +1666,7 @@
     </row>
     <row r="2" spans="1:30" ht="18" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1686,7 +1681,7 @@
         <v>1302</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
         <v>5</v>
@@ -1701,7 +1696,7 @@
         <v>1303</v>
       </c>
       <c r="K2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L2" t="s">
         <v>25</v>
@@ -1716,7 +1711,7 @@
         <v>4206</v>
       </c>
       <c r="P2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q2" t="s">
         <v>13</v>
@@ -1731,7 +1726,7 @@
         <v>4202</v>
       </c>
       <c r="U2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="V2" t="s">
         <v>41</v>
@@ -1746,7 +1741,7 @@
         <v>1301</v>
       </c>
       <c r="Z2" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="AA2" t="s">
         <v>44</v>
@@ -1755,7 +1750,7 @@
         <v>12</v>
       </c>
       <c r="AC2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AD2">
         <v>4201</v>
@@ -1763,7 +1758,7 @@
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -1778,7 +1773,7 @@
         <v>1303</v>
       </c>
       <c r="F3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1793,7 +1788,7 @@
         <v>1302</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L3" t="s">
         <v>10</v>
@@ -1808,7 +1803,7 @@
         <v>4203</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q3" t="s">
         <v>18</v>
@@ -1823,7 +1818,7 @@
         <v>1311</v>
       </c>
       <c r="U3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="V3" t="s">
         <v>45</v>
@@ -1855,7 +1850,7 @@
         <v>4201</v>
       </c>
       <c r="F4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
@@ -1870,7 +1865,7 @@
         <v>4202</v>
       </c>
       <c r="K4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L4" t="s">
         <v>26</v>
@@ -1885,7 +1880,7 @@
         <v>1313</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Q4" t="s">
         <v>14</v>
@@ -1900,10 +1895,10 @@
         <v>1313</v>
       </c>
       <c r="U4" t="s">
+        <v>165</v>
+      </c>
+      <c r="V4" t="s">
         <v>46</v>
-      </c>
-      <c r="V4" t="s">
-        <v>47</v>
       </c>
       <c r="W4" t="s">
         <v>12</v>
@@ -1912,12 +1907,12 @@
         <v>2</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -1932,7 +1927,7 @@
         <v>1201</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -1947,7 +1942,7 @@
         <v>1301</v>
       </c>
       <c r="K5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s">
         <v>27</v>
@@ -1962,7 +1957,7 @@
         <v>4201</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q5" t="s">
         <v>37</v>
@@ -1977,7 +1972,7 @@
         <v>4201</v>
       </c>
       <c r="U5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="V5" t="s">
         <v>42</v>
@@ -1994,7 +1989,7 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -2003,13 +1998,13 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>1311</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
         <v>15</v>
@@ -2024,7 +2019,7 @@
         <v>4206</v>
       </c>
       <c r="K6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="L6" t="s">
         <v>3</v>
@@ -2039,7 +2034,7 @@
         <v>1302</v>
       </c>
       <c r="P6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="Q6" t="s">
         <v>17</v>
@@ -2054,10 +2049,10 @@
         <v>1312</v>
       </c>
       <c r="U6" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="V6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W6" t="s">
         <v>1</v>
@@ -2071,7 +2066,7 @@
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -2080,13 +2075,13 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7">
         <v>1302</v>
       </c>
       <c r="F7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
         <v>17</v>
@@ -2101,7 +2096,7 @@
         <v>1312</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
         <v>28</v>
@@ -2116,7 +2111,7 @@
         <v>4202</v>
       </c>
       <c r="P7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q7" t="s">
         <v>10</v>
@@ -2131,7 +2126,7 @@
         <v>4203</v>
       </c>
       <c r="U7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="V7" t="s">
         <v>17</v>
@@ -2140,7 +2135,7 @@
         <v>4</v>
       </c>
       <c r="X7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y7">
         <v>1312</v>
@@ -2148,7 +2143,7 @@
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -2157,13 +2152,13 @@
         <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>1303</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -2178,7 +2173,7 @@
         <v>4112</v>
       </c>
       <c r="K8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L8" t="s">
         <v>0</v>
@@ -2193,7 +2188,7 @@
         <v>1311</v>
       </c>
       <c r="P8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q8" t="s">
         <v>36</v>
@@ -2208,7 +2203,7 @@
         <v>1201</v>
       </c>
       <c r="U8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="V8" t="s">
         <v>41</v>
@@ -2217,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="X8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y8">
         <v>1301</v>
@@ -2225,7 +2220,7 @@
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -2234,13 +2229,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9">
         <v>2401</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>
@@ -2255,7 +2250,7 @@
         <v>3101</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
         <v>29</v>
@@ -2270,7 +2265,7 @@
         <v>1312</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="Q9" t="s">
         <v>40</v>
@@ -2285,16 +2280,16 @@
         <v>2413</v>
       </c>
       <c r="U9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="V9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="W9" t="s">
         <v>12</v>
       </c>
       <c r="X9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y9">
         <v>1206</v>
@@ -2302,7 +2297,7 @@
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -2311,13 +2306,13 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10">
         <v>4201</v>
       </c>
       <c r="F10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s">
         <v>20</v>
@@ -2332,7 +2327,7 @@
         <v>1203</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L10" t="s">
         <v>31</v>
@@ -2347,7 +2342,7 @@
         <v>4204</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="Q10" t="s">
         <v>41</v>
@@ -2362,16 +2357,16 @@
         <v>1301</v>
       </c>
       <c r="U10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="W10" t="s">
         <v>1</v>
       </c>
       <c r="X10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y10">
         <v>1205</v>
@@ -2379,7 +2374,7 @@
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G11" t="s">
         <v>21</v>
@@ -2394,7 +2389,7 @@
         <v>2302</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -2409,7 +2404,7 @@
         <v>1206</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Q11" t="s">
         <v>42</v>
@@ -2424,24 +2419,24 @@
         <v>1206</v>
       </c>
       <c r="U11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="V11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W11" t="s">
         <v>12</v>
       </c>
       <c r="X11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
         <v>22</v>
@@ -2456,7 +2451,7 @@
         <v>2301</v>
       </c>
       <c r="K12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s">
         <v>21</v>
@@ -2471,7 +2466,7 @@
         <v>2302</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="Q12" t="s">
         <v>43</v>
@@ -2486,16 +2481,16 @@
         <v>4204</v>
       </c>
       <c r="U12" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="V12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="W12" t="s">
         <v>6</v>
       </c>
       <c r="X12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y12">
         <v>1401</v>
@@ -2503,7 +2498,7 @@
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
         <v>23</v>
@@ -2518,7 +2513,7 @@
         <v>4201</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L13" t="s">
         <v>22</v>
@@ -2533,7 +2528,7 @@
         <v>2301</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q13" t="s">
         <v>44</v>
@@ -2548,16 +2543,16 @@
         <v>3101</v>
       </c>
       <c r="U13" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="V13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W13" t="s">
         <v>6</v>
       </c>
       <c r="X13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y13">
         <v>2401</v>
@@ -2565,7 +2560,7 @@
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -2574,13 +2569,13 @@
         <v>1</v>
       </c>
       <c r="I14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J14">
         <v>4203</v>
       </c>
       <c r="K14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s">
         <v>33</v>
@@ -2595,7 +2590,7 @@
         <v>1201</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="Q14" t="s">
         <v>35</v>
@@ -2610,16 +2605,16 @@
         <v>1304</v>
       </c>
       <c r="U14" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="V14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="W14" t="s">
         <v>1</v>
       </c>
       <c r="X14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y14">
         <v>1101</v>
@@ -2627,7 +2622,7 @@
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -2636,13 +2631,13 @@
         <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15">
         <v>1303</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s">
         <v>20</v>
@@ -2657,7 +2652,7 @@
         <v>1301</v>
       </c>
       <c r="P15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q15" t="s">
         <v>24</v>
@@ -2666,7 +2661,7 @@
         <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T15">
         <v>1303</v>
@@ -2674,7 +2669,7 @@
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
         <v>11</v>
@@ -2683,13 +2678,13 @@
         <v>12</v>
       </c>
       <c r="I16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16">
         <v>1302</v>
       </c>
       <c r="K16" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
         <v>35</v>
@@ -2704,7 +2699,7 @@
         <v>1304</v>
       </c>
       <c r="P16" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q16" t="s">
         <v>13</v>
@@ -2713,7 +2708,7 @@
         <v>6</v>
       </c>
       <c r="S16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T16">
         <v>4202</v>
@@ -2721,7 +2716,7 @@
     </row>
     <row r="17" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
         <v>13</v>
@@ -2730,13 +2725,13 @@
         <v>6</v>
       </c>
       <c r="I17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17">
         <v>4202</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s">
         <v>36</v>
@@ -2751,7 +2746,7 @@
         <v>1203</v>
       </c>
       <c r="P17" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="Q17" t="s">
         <v>18</v>
@@ -2760,7 +2755,7 @@
         <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T17">
         <v>1311</v>
@@ -2768,7 +2763,7 @@
     </row>
     <row r="18" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s">
         <v>14</v>
@@ -2777,13 +2772,13 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J18">
         <v>1301</v>
       </c>
       <c r="K18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L18" t="s">
         <v>5</v>
@@ -2792,13 +2787,13 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O18">
         <v>1303</v>
       </c>
       <c r="P18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="Q18" t="s">
         <v>14</v>
@@ -2807,7 +2802,7 @@
         <v>1</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T18">
         <v>1313</v>
@@ -2815,7 +2810,7 @@
     </row>
     <row r="19" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G19" t="s">
         <v>15</v>
@@ -2824,13 +2819,13 @@
         <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J19">
         <v>4206</v>
       </c>
       <c r="K19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s">
         <v>15</v>
@@ -2839,13 +2834,13 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O19">
         <v>4206</v>
       </c>
       <c r="P19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q19" t="s">
         <v>37</v>
@@ -2854,7 +2849,7 @@
         <v>6</v>
       </c>
       <c r="S19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T19">
         <v>4201</v>
@@ -2862,7 +2857,7 @@
     </row>
     <row r="20" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s">
         <v>18</v>
@@ -2871,13 +2866,13 @@
         <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20">
         <v>4112</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L20" t="s">
         <v>10</v>
@@ -2886,13 +2881,13 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O20">
         <v>4203</v>
       </c>
       <c r="P20" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="Q20" t="s">
         <v>17</v>
@@ -2901,7 +2896,7 @@
         <v>38</v>
       </c>
       <c r="S20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T20">
         <v>1312</v>
@@ -2909,7 +2904,7 @@
     </row>
     <row r="21" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s">
         <v>29</v>
@@ -2918,13 +2913,13 @@
         <v>12</v>
       </c>
       <c r="I21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J21">
         <v>1312</v>
       </c>
       <c r="K21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L21" t="s">
         <v>14</v>
@@ -2933,13 +2928,13 @@
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O21">
         <v>1313</v>
       </c>
       <c r="P21" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q21" t="s">
         <v>10</v>
@@ -2948,7 +2943,7 @@
         <v>39</v>
       </c>
       <c r="S21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T21">
         <v>4203</v>
@@ -2956,7 +2951,7 @@
     </row>
     <row r="22" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G22" t="s">
         <v>19</v>
@@ -2965,13 +2960,13 @@
         <v>12</v>
       </c>
       <c r="I22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J22">
         <v>2401</v>
       </c>
       <c r="K22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L22" t="s">
         <v>37</v>
@@ -2980,13 +2975,13 @@
         <v>6</v>
       </c>
       <c r="N22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O22">
         <v>4201</v>
       </c>
       <c r="P22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q22" t="s">
         <v>36</v>
@@ -2995,7 +2990,7 @@
         <v>12</v>
       </c>
       <c r="S22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T22">
         <v>1201</v>
@@ -3003,7 +2998,7 @@
     </row>
     <row r="23" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G23" t="s">
         <v>20</v>
@@ -3012,13 +3007,13 @@
         <v>1</v>
       </c>
       <c r="I23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J23">
         <v>1203</v>
       </c>
       <c r="K23" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L23" t="s">
         <v>11</v>
@@ -3027,13 +3022,13 @@
         <v>6</v>
       </c>
       <c r="N23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O23">
         <v>1302</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Q23" t="s">
         <v>40</v>
@@ -3042,7 +3037,7 @@
         <v>6</v>
       </c>
       <c r="S23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T23">
         <v>2413</v>
@@ -3050,22 +3045,22 @@
     </row>
     <row r="24" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s">
         <v>6</v>
       </c>
       <c r="I24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24">
         <v>1401</v>
       </c>
       <c r="K24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L24" t="s">
         <v>13</v>
@@ -3074,13 +3069,13 @@
         <v>6</v>
       </c>
       <c r="N24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O24">
         <v>4202</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="Q24" t="s">
         <v>41</v>
@@ -3089,7 +3084,7 @@
         <v>1</v>
       </c>
       <c r="S24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T24">
         <v>1301</v>
@@ -3097,7 +3092,7 @@
     </row>
     <row r="25" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G25" t="s">
         <v>22</v>
@@ -3106,13 +3101,13 @@
         <v>1</v>
       </c>
       <c r="I25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J25">
         <v>2302</v>
       </c>
       <c r="K25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L25" t="s">
         <v>18</v>
@@ -3121,22 +3116,22 @@
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O25">
         <v>1301</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R25" t="s">
         <v>1</v>
       </c>
       <c r="S25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T25">
         <v>1101</v>
@@ -3144,7 +3139,7 @@
     </row>
     <row r="26" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
         <v>9</v>
@@ -3153,13 +3148,13 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26">
         <v>1201</v>
       </c>
       <c r="K26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L26" t="s">
         <v>17</v>
@@ -3168,13 +3163,13 @@
         <v>30</v>
       </c>
       <c r="N26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O26">
         <v>1312</v>
       </c>
       <c r="P26" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Q26" t="s">
         <v>43</v>
@@ -3183,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="S26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T26">
         <v>4204</v>
@@ -3191,7 +3186,7 @@
     </row>
     <row r="27" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="F27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" t="s">
         <v>40</v>
@@ -3200,13 +3195,13 @@
         <v>6</v>
       </c>
       <c r="I27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J27">
         <v>4201</v>
       </c>
       <c r="K27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L27" t="s">
         <v>44</v>
@@ -3215,22 +3210,22 @@
         <v>6</v>
       </c>
       <c r="N27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O27">
         <v>2401</v>
       </c>
       <c r="P27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Q27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R27" t="s">
         <v>6</v>
       </c>
       <c r="S27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="T27">
         <v>1206</v>
@@ -3238,7 +3233,7 @@
     </row>
     <row r="28" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L28" t="s">
         <v>19</v>
@@ -3247,7 +3242,7 @@
         <v>6</v>
       </c>
       <c r="N28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O28">
         <v>3101</v>
@@ -3255,7 +3250,7 @@
     </row>
     <row r="29" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K29" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L29" t="s">
         <v>43</v>
@@ -3264,7 +3259,7 @@
         <v>6</v>
       </c>
       <c r="N29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O29">
         <v>1101</v>
@@ -3272,7 +3267,7 @@
     </row>
     <row r="30" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K30" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="L30" t="s">
         <v>22</v>
@@ -3281,7 +3276,7 @@
         <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O30">
         <v>2301</v>
@@ -3289,7 +3284,7 @@
     </row>
     <row r="31" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L31" t="s">
         <v>21</v>
@@ -3298,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="N31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O31">
         <v>2302</v>
@@ -3306,7 +3301,7 @@
     </row>
     <row r="32" spans="6:20" x14ac:dyDescent="0.55000000000000004">
       <c r="K32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L32" t="s">
         <v>20</v>
@@ -3315,7 +3310,7 @@
         <v>12</v>
       </c>
       <c r="N32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O32">
         <v>1301</v>
@@ -3323,16 +3318,16 @@
     </row>
     <row r="33" spans="11:15" x14ac:dyDescent="0.55000000000000004">
       <c r="K33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M33" t="s">
         <v>6</v>
       </c>
       <c r="N33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O33">
         <v>1203</v>

--- a/app/Http/Python/excel/Monday.xlsx
+++ b/app/Http/Python/excel/Monday.xlsx
@@ -623,22 +623,22 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t xml:space="preserve">課題演習 I(藤枝) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">教職論(中等) </t>
-  </si>
-  <si>
-    <t>課題演習 II(藤枝)</t>
-  </si>
-  <si>
-    <t>教育と社会「教育原理II」(初等)</t>
-  </si>
-  <si>
-    <t>教育課程論(初等)</t>
-  </si>
-  <si>
-    <t>教職論(初等)</t>
+    <t xml:space="preserve">課題演習 I（藤枝） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">教職論（中等） </t>
+  </si>
+  <si>
+    <t>課題演習 II（藤枝）</t>
+  </si>
+  <si>
+    <t>教育と社会「教育原理II」（初等）</t>
+  </si>
+  <si>
+    <t>教育課程論（初等）</t>
+  </si>
+  <si>
+    <t>教職論（初等）</t>
   </si>
 </sst>
 </file>
@@ -1562,7 +1562,7 @@
   <dimension ref="A1:AD33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
